--- a/scripts/20140605_hongkong.xlsx
+++ b/scripts/20140605_hongkong.xlsx
@@ -8,8 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -23021,34 +23019,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter alignWithMargins="0"/>
-</worksheet>
 </file>